--- a/docs/요구사항추적표.xlsx
+++ b/docs/요구사항추적표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\univ\4\4-1\GameServer\GameServer\hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\univ\4\4-1\GameServer\GameServer-hw\GameServer_final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D5179-F5A1-4281-8A6F-9EEC57C3E6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB0B98-2FD0-4825-8749-5F04510A3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="6315" windowWidth="17130" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>주요기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>플레이어의 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:B13"/>
+  <dimension ref="A4:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -424,11 +428,11 @@
     <col min="2" max="2" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -444,7 +448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -452,17 +456,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -470,12 +477,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -483,7 +493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>

--- a/docs/요구사항추적표.xlsx
+++ b/docs/요구사항추적표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\univ\4\4-1\GameServer\GameServer-hw\GameServer_final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CB0B98-2FD0-4825-8749-5F04510A3632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687A8F3-221E-43FF-8432-99A7857F89C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>주요기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:C13"/>
+  <dimension ref="A4:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -447,6 +451,9 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -490,14 +497,30 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>

--- a/docs/요구사항추적표.xlsx
+++ b/docs/요구사항추적표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\univ\4\4-1\GameServer\GameServer-hw\GameServer_final\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7687A8F3-221E-43FF-8432-99A7857F89C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F31B7-B5BA-402F-A132-E2268A69A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>주요기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,7 +423,7 @@
   <dimension ref="A4:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -462,6 +462,9 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -475,6 +478,9 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -506,6 +512,9 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
